--- a/static/templates/Product_Training_Schedule.xlsx
+++ b/static/templates/Product_Training_Schedule.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PRODUCT IMPLEMENTATION PROJECT - TRAINING SCHEDULE</t>
+          <t>Product Development IMPLEMENTATION PROJECT - TRProductNING SCHEDULE</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Enterprise PRODUCT Training Schedule</t>
+          <t>Enterprise Product Development Implementation</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -599,10 +599,11 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>TRAINING SCHEDULE SUMMARY</t>
+          <t>TRProductNING SCHEDULE SUMMARY</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals (AI-101)</t>
+          <t>Product Development Fundamentals (Product-101)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -701,7 +702,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview (AI-102)</t>
+          <t>Product Development Platform Overview (Product-102)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -746,7 +747,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Data Analysis for Business (AI-201)</t>
+          <t>Data Analysis for Business (Product-201)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -791,7 +792,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques (AI-301)</t>
+          <t>Advanced Product Techniques (Product-301)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -836,12 +837,12 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams (AI-302)</t>
+          <t>ProductOps for IT Teams (Product-302)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>Product Engineers, IT</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -881,12 +882,12 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Model Validation &amp; QA (AI-303)</t>
+          <t>Model Validation &amp; QA (Product-303)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>Product Engineers, QA</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -926,7 +927,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Executive Overview (AI-401)</t>
+          <t>Executive Overview (Product-401)</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -971,7 +972,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Train-the-Trainer (AI-501)</t>
+          <t>Train-the-Trainer (Product-501)</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1013,10 +1014,11 @@
         </is>
       </c>
     </row>
+    <row r="17"/>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>TRAINING SCHEDULE STATISTICS</t>
+          <t>TRProductNING SCHEDULE STATISTICS</t>
         </is>
       </c>
     </row>
@@ -1223,10 +1225,11 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DETAILED TRAINING SCHEDULE</t>
-        </is>
-      </c>
-    </row>
+          <t>DETProductLED TRProductNING SCHEDULE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1292,12 +1295,12 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Fundamentals</t>
+          <t>Product Development Fundamentals</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1350,12 +1353,12 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>AI/ML Platform Overview</t>
+          <t>Product Development Platform Overview</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -1408,7 +1411,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>AI-201</t>
+          <t>Product-201</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -1466,7 +1469,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>AI-201</t>
+          <t>Product-201</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -1524,7 +1527,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>AI-201</t>
+          <t>Product-201</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1582,12 +1585,12 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>AI-301</t>
+          <t>Product-301</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1640,12 +1643,12 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>AI-301</t>
+          <t>Product-301</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -1698,17 +1701,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>AI-302</t>
+          <t>Product-302</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>Product Engineers, IT</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -1756,17 +1759,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>AI-302</t>
+          <t>Product-302</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, IT</t>
+          <t>Product Engineers, IT</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -1814,7 +1817,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>AI-303</t>
+          <t>Product-303</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -1824,7 +1827,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>Product Engineers, QA</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
@@ -1872,7 +1875,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>AI-303</t>
+          <t>Product-303</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1882,7 +1885,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>ML Engineers, QA</t>
+          <t>Product Engineers, QA</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -1930,7 +1933,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>AI-401</t>
+          <t>Product-401</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1988,7 +1991,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -2046,7 +2049,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -2104,7 +2107,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -2162,7 +2165,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -2220,7 +2223,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -2318,6 +2321,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -2474,7 +2478,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2511,7 +2515,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -2548,7 +2552,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2585,7 +2589,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2948,6 +2952,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3141,7 +3146,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Advanced ML Techniques</t>
+          <t>Advanced Product Techniques</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -3178,7 +3183,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3215,7 +3220,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>MLOps for IT Teams</t>
+          <t>ProductOps for IT Teams</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3579,6 +3584,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3649,7 +3655,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -3691,7 +3697,7 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -3733,7 +3739,7 @@
       </c>
       <c r="F6" s="8" t="inlineStr">
         <is>
-          <t>AI-301</t>
+          <t>Product-301</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr">
@@ -3775,7 +3781,7 @@
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>AI-302</t>
+          <t>Product-302</t>
         </is>
       </c>
       <c r="G7" s="8" t="inlineStr">
@@ -3812,12 +3818,12 @@
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr">
@@ -3854,12 +3860,12 @@
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="G9" s="8" t="inlineStr">
@@ -3896,12 +3902,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>AI-302</t>
+          <t>Product-302</t>
         </is>
       </c>
       <c r="G10" s="8" t="inlineStr">
@@ -3938,12 +3944,12 @@
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Engineer</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>AI-303</t>
+          <t>Product-303</t>
         </is>
       </c>
       <c r="G11" s="8" t="inlineStr">
@@ -3985,7 +3991,7 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="G12" s="8" t="inlineStr">
@@ -4027,7 +4033,7 @@
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="G13" s="8" t="inlineStr">
@@ -4069,7 +4075,7 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>AI-401</t>
+          <t>Product-401</t>
         </is>
       </c>
       <c r="G14" s="8" t="inlineStr">
@@ -4111,7 +4117,7 @@
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="G15" s="8" t="inlineStr">
@@ -4153,7 +4159,7 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="G16" s="8" t="inlineStr">
@@ -4195,7 +4201,7 @@
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="G17" s="8" t="inlineStr">
@@ -4237,7 +4243,7 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>AI-101</t>
+          <t>Product-101</t>
         </is>
       </c>
       <c r="G18" s="8" t="inlineStr">
@@ -4279,7 +4285,7 @@
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>AI-102</t>
+          <t>Product-102</t>
         </is>
       </c>
       <c r="G19" s="8" t="inlineStr">
@@ -4321,7 +4327,7 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>AI-301</t>
+          <t>Product-301</t>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr">
@@ -4363,7 +4369,7 @@
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>AI-303</t>
+          <t>Product-303</t>
         </is>
       </c>
       <c r="G21" s="8" t="inlineStr">
@@ -4405,7 +4411,7 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>AI-501</t>
+          <t>Product-501</t>
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr">

--- a/static/templates/Product_Training_Schedule.xlsx
+++ b/static/templates/Product_Training_Schedule.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Product Development IMPLEMENTATION PROJECT - TRProductNING SCHEDULE</t>
+          <t>PRODUCT IMPLEMENTATION PROJECT - TRAINING SCHEDULE</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Enterprise Product Development Implementation</t>
+          <t>Enterprise PRODUCT Training Schedule</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -599,11 +599,10 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>TRProductNING SCHEDULE SUMMARY</t>
+          <t>TRAINING SCHEDULE SUMMARY</t>
         </is>
       </c>
     </row>
@@ -657,7 +656,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Product Development Fundamentals (Product-101)</t>
+          <t>AI/ML Fundamentals (AI-101)</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -702,7 +701,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Product Development Platform Overview (Product-102)</t>
+          <t>AI/ML Platform Overview (AI-102)</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -747,7 +746,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Data Analysis for Business (Product-201)</t>
+          <t>Data Analysis for Business (AI-201)</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -792,7 +791,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques (Product-301)</t>
+          <t>Advanced ML Techniques (AI-301)</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -837,12 +836,12 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams (Product-302)</t>
+          <t>MLOps for IT Teams (AI-302)</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, IT</t>
+          <t>ML Engineers, IT</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
@@ -882,12 +881,12 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Model Validation &amp; QA (Product-303)</t>
+          <t>Model Validation &amp; QA (AI-303)</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, QA</t>
+          <t>ML Engineers, QA</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -927,7 +926,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Executive Overview (Product-401)</t>
+          <t>Executive Overview (AI-401)</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -972,7 +971,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Train-the-Trainer (Product-501)</t>
+          <t>Train-the-Trainer (AI-501)</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1014,11 +1013,10 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>TRProductNING SCHEDULE STATISTICS</t>
+          <t>TRAINING SCHEDULE STATISTICS</t>
         </is>
       </c>
     </row>
@@ -1225,11 +1223,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DETProductLED TRProductNING SCHEDULE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
+          <t>DETAILED TRAINING SCHEDULE</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -1295,12 +1292,12 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>Product Development Fundamentals</t>
+          <t>AI/ML Fundamentals</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1353,12 +1350,12 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Product Development Platform Overview</t>
+          <t>AI/ML Platform Overview</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -1411,7 +1408,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Product-201</t>
+          <t>AI-201</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
@@ -1469,7 +1466,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Product-201</t>
+          <t>AI-201</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -1527,7 +1524,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>Product-201</t>
+          <t>AI-201</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1585,12 +1582,12 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>Product-301</t>
+          <t>AI-301</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -1643,12 +1640,12 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>Product-301</t>
+          <t>AI-301</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -1701,17 +1698,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>Product-302</t>
+          <t>AI-302</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, IT</t>
+          <t>ML Engineers, IT</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -1759,17 +1756,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>Product-302</t>
+          <t>AI-302</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, IT</t>
+          <t>ML Engineers, IT</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
@@ -1817,7 +1814,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>Product-303</t>
+          <t>AI-303</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -1827,7 +1824,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, QA</t>
+          <t>ML Engineers, QA</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
@@ -1875,7 +1872,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>Product-303</t>
+          <t>AI-303</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -1885,7 +1882,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>Product Engineers, QA</t>
+          <t>ML Engineers, QA</t>
         </is>
       </c>
       <c r="D14" s="8" t="inlineStr">
@@ -1933,7 +1930,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>Product-401</t>
+          <t>AI-401</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -1991,7 +1988,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -2049,7 +2046,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -2107,7 +2104,7 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
@@ -2165,7 +2162,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -2223,7 +2220,7 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
@@ -2321,7 +2318,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -2478,7 +2474,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2515,7 +2511,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -2552,7 +2548,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -2589,7 +2585,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2952,7 +2948,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3146,7 +3141,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Advanced Product Techniques</t>
+          <t>Advanced ML Techniques</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -3183,7 +3178,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -3220,7 +3215,7 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ProductOps for IT Teams</t>
+          <t>MLOps for IT Teams</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3584,7 +3579,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3655,7 +3649,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -3697,7 +3691,7 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -3739,7 +3733,7 @@
       </c>
       <c r="F6" s="8" t="inlineStr">
         <is>
-          <t>Product-301</t>
+          <t>AI-301</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr">
@@ -3781,7 +3775,7 @@
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>Product-302</t>
+          <t>AI-302</t>
         </is>
       </c>
       <c r="G7" s="8" t="inlineStr">
@@ -3818,12 +3812,12 @@
       </c>
       <c r="E8" s="8" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr">
@@ -3860,12 +3854,12 @@
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="G9" s="8" t="inlineStr">
@@ -3902,12 +3896,12 @@
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>Product-302</t>
+          <t>AI-302</t>
         </is>
       </c>
       <c r="G10" s="8" t="inlineStr">
@@ -3944,12 +3938,12 @@
       </c>
       <c r="E11" s="8" t="inlineStr">
         <is>
-          <t>Product Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>Product-303</t>
+          <t>AI-303</t>
         </is>
       </c>
       <c r="G11" s="8" t="inlineStr">
@@ -3991,7 +3985,7 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="G12" s="8" t="inlineStr">
@@ -4033,7 +4027,7 @@
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="G13" s="8" t="inlineStr">
@@ -4075,7 +4069,7 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>Product-401</t>
+          <t>AI-401</t>
         </is>
       </c>
       <c r="G14" s="8" t="inlineStr">
@@ -4117,7 +4111,7 @@
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="G15" s="8" t="inlineStr">
@@ -4159,7 +4153,7 @@
       </c>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="G16" s="8" t="inlineStr">
@@ -4201,7 +4195,7 @@
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="G17" s="8" t="inlineStr">
@@ -4243,7 +4237,7 @@
       </c>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>Product-101</t>
+          <t>AI-101</t>
         </is>
       </c>
       <c r="G18" s="8" t="inlineStr">
@@ -4285,7 +4279,7 @@
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>Product-102</t>
+          <t>AI-102</t>
         </is>
       </c>
       <c r="G19" s="8" t="inlineStr">
@@ -4327,7 +4321,7 @@
       </c>
       <c r="F20" s="8" t="inlineStr">
         <is>
-          <t>Product-301</t>
+          <t>AI-301</t>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr">
@@ -4369,7 +4363,7 @@
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>Product-303</t>
+          <t>AI-303</t>
         </is>
       </c>
       <c r="G21" s="8" t="inlineStr">
@@ -4411,7 +4405,7 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>Product-501</t>
+          <t>AI-501</t>
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr">
